--- a/domain_files/ifdat/model/SELF_KEY_DATAMODEL.xlsx
+++ b/domain_files/ifdat/model/SELF_KEY_DATAMODEL.xlsx
@@ -24,9 +24,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'MEASURES'!$A$1:$C$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ATTRS'!$A$1:$E$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'ATTR_OBSRVTN_STTS_ENUM'!$A$1:$C$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'GEN_FRQNCY_ENUM'!$A$1:$C$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'GEN_FRQNCY_ENUM'!$A$1:$C$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'DVDND_CSTM_FRQNCY_ENUM'!$A$1:$C$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'DVDND_TYP_ENUM'!$A$1:$C$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'DVDND_TYP_ENUM'!$A$1:$C$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'GEN_CRRNCY_ENUM'!$A$1:$C$42</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -869,7 +869,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6.5" customWidth="1" min="1" max="1"/>
     <col width="26" customWidth="1" min="2" max="2"/>
@@ -1608,7 +1608,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10.4" customWidth="1" min="1" max="1"/>
     <col width="40" customWidth="1" min="2" max="2"/>
@@ -1786,7 +1786,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10.4" customWidth="1" min="1" max="1"/>
     <col width="14.3" customWidth="1" min="2" max="2"/>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C2" s="9" t="inlineStr">
         <is>
-          <t>STR32_ID</t>
+          <t>ID</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>STR32_ID</t>
+          <t>ID</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C6" s="9" t="inlineStr">
         <is>
-          <t>STR32_ID</t>
+          <t>ID</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>STR32_ID</t>
+          <t>ID</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>STR32_ID</t>
+          <t>ID</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10.4" customWidth="1" min="1" max="1"/>
     <col width="18.2" customWidth="1" min="2" max="2"/>
@@ -2370,7 +2370,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10.4" customWidth="1" min="1" max="1"/>
     <col width="18.2" customWidth="1" min="2" max="2"/>
@@ -2893,7 +2893,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="5.2" customWidth="1" min="1" max="1"/>
     <col width="44.2" customWidth="1" min="2" max="2"/>
@@ -2994,7 +2994,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3003,7 +3003,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6.5" customWidth="1" min="1" max="1"/>
     <col width="29.9" customWidth="1" min="2" max="2"/>
@@ -3027,583 +3027,600 @@
     <row r="2" ht="36" customHeight="1">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B2" s="9" t="inlineStr">
         <is>
-          <t>Annual</t>
+          <t>Reset</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
         <is>
-          <t>Annual</t>
+          <t>Reset value</t>
         </is>
       </c>
     </row>
     <row r="3" ht="36" customHeight="1">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>Daily - businessweek</t>
+          <t>Annual</t>
         </is>
       </c>
       <c r="C3" s="14" t="inlineStr">
         <is>
-          <t>Daily - businessweek</t>
+          <t>Annual</t>
         </is>
       </c>
     </row>
     <row r="4" ht="36" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>Daily</t>
+          <t>Daily - businessweek</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>Daily</t>
+          <t>Daily - businessweek</t>
         </is>
       </c>
     </row>
     <row r="5" ht="36" customHeight="1">
       <c r="A5" s="6" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>Hourly</t>
+          <t>Daily</t>
         </is>
       </c>
       <c r="C5" s="14" t="inlineStr">
         <is>
-          <t>Hourly</t>
+          <t>Daily</t>
         </is>
       </c>
     </row>
     <row r="6" ht="36" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B6" s="9" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Hourly</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Hourly</t>
         </is>
       </c>
     </row>
     <row r="7" ht="36" customHeight="1">
       <c r="A7" s="6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>Minutely</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C7" s="14" t="inlineStr">
         <is>
-          <t>Minutely</t>
+          <t>Monthly</t>
         </is>
       </c>
     </row>
     <row r="8" ht="36" customHeight="1">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Minutely</t>
         </is>
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Minutely</t>
         </is>
       </c>
     </row>
     <row r="9" ht="36" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="B9" s="11" t="inlineStr">
         <is>
-          <t>Half-yearly, semester</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C9" s="14" t="inlineStr">
         <is>
-          <t>Half-yearly, semester</t>
+          <t>Quarterly</t>
         </is>
       </c>
     </row>
     <row r="10" ht="36" customHeight="1">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="B10" s="9" t="inlineStr">
         <is>
-          <t>Weekly</t>
+          <t>Half-yearly, semester</t>
         </is>
       </c>
       <c r="C10" s="13" t="inlineStr">
         <is>
-          <t>Weekly</t>
+          <t>Half-yearly, semester</t>
         </is>
       </c>
     </row>
     <row r="11" ht="36" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>W</t>
         </is>
       </c>
       <c r="B11" s="11" t="inlineStr">
         <is>
-          <t>Biennial</t>
+          <t>Weekly</t>
         </is>
       </c>
       <c r="C11" s="14" t="inlineStr">
         <is>
-          <t>Biennial</t>
+          <t>Weekly</t>
         </is>
       </c>
     </row>
     <row r="12" ht="36" customHeight="1">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="B12" s="9" t="inlineStr">
         <is>
-          <t>Triennial</t>
+          <t>Biennial</t>
         </is>
       </c>
       <c r="C12" s="13" t="inlineStr">
         <is>
-          <t>Triennial</t>
+          <t>Biennial</t>
         </is>
       </c>
     </row>
     <row r="13" ht="36" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="B13" s="11" t="inlineStr">
         <is>
-          <t>Quadrennial</t>
+          <t>Triennial</t>
         </is>
       </c>
       <c r="C13" s="14" t="inlineStr">
         <is>
-          <t>Quadrennial</t>
+          <t>Triennial</t>
         </is>
       </c>
     </row>
     <row r="14" ht="36" customHeight="1">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="B14" s="9" t="inlineStr">
         <is>
-          <t>Quinquennial</t>
+          <t>Quadrennial</t>
         </is>
       </c>
       <c r="C14" s="13" t="inlineStr">
         <is>
-          <t>Quinquennial</t>
+          <t>Quadrennial</t>
         </is>
       </c>
     </row>
     <row r="15" ht="36" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="B15" s="11" t="inlineStr">
         <is>
-          <t>Decennial</t>
+          <t>Quinquennial</t>
         </is>
       </c>
       <c r="C15" s="14" t="inlineStr">
         <is>
-          <t>Decennial</t>
+          <t>Quinquennial</t>
         </is>
       </c>
     </row>
     <row r="16" ht="36" customHeight="1">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>A20</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="B16" s="9" t="inlineStr">
         <is>
-          <t>Bidecennial</t>
+          <t>Decennial</t>
         </is>
       </c>
       <c r="C16" s="13" t="inlineStr">
         <is>
-          <t>Bidecennial</t>
+          <t>Decennial</t>
         </is>
       </c>
     </row>
     <row r="17" ht="36" customHeight="1">
       <c r="A17" s="6" t="inlineStr">
         <is>
-          <t>A30</t>
+          <t>A20</t>
         </is>
       </c>
       <c r="B17" s="11" t="inlineStr">
         <is>
-          <t>Tridecennial</t>
+          <t>Bidecennial</t>
         </is>
       </c>
       <c r="C17" s="14" t="inlineStr">
         <is>
-          <t>Tridecennial</t>
+          <t>Bidecennial</t>
         </is>
       </c>
     </row>
     <row r="18" ht="36" customHeight="1">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>A_3</t>
+          <t>A30</t>
         </is>
       </c>
       <c r="B18" s="9" t="inlineStr">
         <is>
-          <t>Three times a year</t>
+          <t>Tridecennial</t>
         </is>
       </c>
       <c r="C18" s="13" t="inlineStr">
         <is>
-          <t>Three times a year</t>
+          <t>Tridecennial</t>
         </is>
       </c>
     </row>
     <row r="19" ht="36" customHeight="1">
       <c r="A19" s="6" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>A_3</t>
         </is>
       </c>
       <c r="B19" s="11" t="inlineStr">
         <is>
-          <t>Bimonthly</t>
+          <t>Three times a year</t>
         </is>
       </c>
       <c r="C19" s="14" t="inlineStr">
         <is>
-          <t>Bimonthly</t>
+          <t>Three times a year</t>
         </is>
       </c>
     </row>
     <row r="20" ht="36" customHeight="1">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>M_2</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>Semimonthly</t>
+          <t>Bimonthly</t>
         </is>
       </c>
       <c r="C20" s="13" t="inlineStr">
         <is>
-          <t>Semimonthly</t>
+          <t>Bimonthly</t>
         </is>
       </c>
     </row>
     <row r="21" ht="36" customHeight="1">
       <c r="A21" s="6" t="inlineStr">
         <is>
-          <t>M_3</t>
+          <t>M_2</t>
         </is>
       </c>
       <c r="B21" s="11" t="inlineStr">
         <is>
-          <t>Three times a month</t>
+          <t>Semimonthly</t>
         </is>
       </c>
       <c r="C21" s="14" t="inlineStr">
         <is>
-          <t>Three times a month</t>
+          <t>Semimonthly</t>
         </is>
       </c>
     </row>
     <row r="22" ht="36" customHeight="1">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>W2</t>
+          <t>M_3</t>
         </is>
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>Biweekly</t>
+          <t>Three times a month</t>
         </is>
       </c>
       <c r="C22" s="13" t="inlineStr">
         <is>
-          <t>Biweekly</t>
+          <t>Three times a month</t>
         </is>
       </c>
     </row>
     <row r="23" ht="36" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
         <is>
-          <t>W3</t>
+          <t>W2</t>
         </is>
       </c>
       <c r="B23" s="11" t="inlineStr">
         <is>
-          <t>Triweekly</t>
+          <t>Biweekly</t>
         </is>
       </c>
       <c r="C23" s="14" t="inlineStr">
         <is>
-          <t>Triweekly</t>
+          <t>Biweekly</t>
         </is>
       </c>
     </row>
     <row r="24" ht="36" customHeight="1">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>W4</t>
+          <t>W3</t>
         </is>
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>Four-weekly</t>
+          <t>Triweekly</t>
         </is>
       </c>
       <c r="C24" s="13" t="inlineStr">
         <is>
-          <t>Four-weekly</t>
+          <t>Triweekly</t>
         </is>
       </c>
     </row>
     <row r="25" ht="36" customHeight="1">
       <c r="A25" s="6" t="inlineStr">
         <is>
-          <t>W_2</t>
+          <t>W4</t>
         </is>
       </c>
       <c r="B25" s="11" t="inlineStr">
         <is>
-          <t>Semiweekly</t>
+          <t>Four-weekly</t>
         </is>
       </c>
       <c r="C25" s="14" t="inlineStr">
         <is>
-          <t>Semiweekly</t>
+          <t>Four-weekly</t>
         </is>
       </c>
     </row>
     <row r="26" ht="36" customHeight="1">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>W_3</t>
+          <t>W_2</t>
         </is>
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>Three times a week</t>
+          <t>Semiweekly</t>
         </is>
       </c>
       <c r="C26" s="13" t="inlineStr">
         <is>
-          <t>Three times a week</t>
+          <t>Semiweekly</t>
         </is>
       </c>
     </row>
     <row r="27" ht="36" customHeight="1">
       <c r="A27" s="6" t="inlineStr">
         <is>
-          <t>D_2</t>
+          <t>W_3</t>
         </is>
       </c>
       <c r="B27" s="11" t="inlineStr">
         <is>
-          <t>Twice a day</t>
+          <t>Three times a week</t>
         </is>
       </c>
       <c r="C27" s="14" t="inlineStr">
         <is>
-          <t>Twice a day</t>
+          <t>Three times a week</t>
         </is>
       </c>
     </row>
     <row r="28" ht="36" customHeight="1">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>D_2</t>
         </is>
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>Bihourly</t>
+          <t>Twice a day</t>
         </is>
       </c>
       <c r="C28" s="13" t="inlineStr">
         <is>
-          <t>Bihourly</t>
+          <t>Twice a day</t>
         </is>
       </c>
     </row>
     <row r="29" ht="36" customHeight="1">
       <c r="A29" s="6" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="B29" s="11" t="inlineStr">
         <is>
-          <t>Trihourly</t>
+          <t>Bihourly</t>
         </is>
       </c>
       <c r="C29" s="14" t="inlineStr">
         <is>
-          <t>Trihourly</t>
+          <t>Bihourly</t>
         </is>
       </c>
     </row>
     <row r="30" ht="36" customHeight="1">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>Irregular</t>
+          <t>Trihourly</t>
         </is>
       </c>
       <c r="C30" s="13" t="inlineStr">
         <is>
-          <t>Irregular</t>
+          <t>Trihourly</t>
         </is>
       </c>
     </row>
     <row r="31" ht="36" customHeight="1">
       <c r="A31" s="6" t="inlineStr">
         <is>
-          <t>OA</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B31" s="11" t="inlineStr">
         <is>
-          <t>Occasional annual</t>
+          <t>Irregular</t>
         </is>
       </c>
       <c r="C31" s="14" t="inlineStr">
         <is>
-          <t>Occasional annual</t>
+          <t>Irregular</t>
         </is>
       </c>
     </row>
     <row r="32" ht="36" customHeight="1">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>OM</t>
+          <t>OA</t>
         </is>
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>Occasional monthly</t>
+          <t>Occasional annual</t>
         </is>
       </c>
       <c r="C32" s="13" t="inlineStr">
         <is>
-          <t>Occasional monthly</t>
+          <t>Occasional annual</t>
         </is>
       </c>
     </row>
     <row r="33" ht="36" customHeight="1">
       <c r="A33" s="6" t="inlineStr">
         <is>
-          <t>_O</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="B33" s="11" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Occasional monthly</t>
         </is>
       </c>
       <c r="C33" s="14" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Occasional monthly</t>
         </is>
       </c>
     </row>
     <row r="34" ht="36" customHeight="1">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>_U</t>
+          <t>_O</t>
         </is>
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>Unspecified</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C34" s="13" t="inlineStr">
         <is>
-          <t>Unspecified</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="35" ht="36" customHeight="1">
       <c r="A35" s="6" t="inlineStr">
         <is>
+          <t>_U</t>
+        </is>
+      </c>
+      <c r="B35" s="11" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+      <c r="C35" s="14" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="36" customHeight="1">
+      <c r="A36" s="4" t="inlineStr">
+        <is>
           <t>_Z</t>
         </is>
       </c>
-      <c r="B35" s="11" t="inlineStr">
+      <c r="B36" s="9" t="inlineStr">
         <is>
           <t>Not applicable</t>
         </is>
       </c>
-      <c r="C35" s="14" t="inlineStr">
+      <c r="C36" s="13" t="inlineStr">
         <is>
           <t>Not applicable</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C35"/>
+  <autoFilter ref="A1:C36"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -3623,10 +3640,10 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="5.2" customWidth="1" min="1" max="1"/>
-    <col width="20.8" customWidth="1" min="2" max="2"/>
+    <col width="16.9" customWidth="1" min="2" max="2"/>
     <col width="85" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
@@ -3647,136 +3664,136 @@
     <row r="2" ht="36" customHeight="1">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>AN</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B2" s="9" t="inlineStr">
         <is>
-          <t>Annual</t>
+          <t>Reset</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
         <is>
-          <t>Annual</t>
+          <t>Reset value</t>
         </is>
       </c>
     </row>
     <row r="3" ht="36" customHeight="1">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>AN</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>Semi-annual</t>
+          <t>Annual</t>
         </is>
       </c>
       <c r="C3" s="14" t="inlineStr">
         <is>
-          <t>Semi-annual</t>
+          <t>Annual</t>
         </is>
       </c>
     </row>
     <row r="4" ht="36" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Semi-annual</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Semi-annual</t>
         </is>
       </c>
     </row>
     <row r="5" ht="36" customHeight="1">
       <c r="A5" s="6" t="inlineStr">
         <is>
-          <t>BM</t>
+          <t>QA</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>Bi-monthly</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C5" s="14" t="inlineStr">
         <is>
-          <t>Bi-monthly</t>
+          <t>Quarterly</t>
         </is>
       </c>
     </row>
     <row r="6" ht="36" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>BM</t>
         </is>
       </c>
       <c r="B6" s="9" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Bi-monthly</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Bi-monthly</t>
         </is>
       </c>
     </row>
     <row r="7" ht="36" customHeight="1">
       <c r="A7" s="6" t="inlineStr">
         <is>
-          <t>WE</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>Weekly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C7" s="14" t="inlineStr">
         <is>
-          <t>Weekly</t>
+          <t>Monthly</t>
         </is>
       </c>
     </row>
     <row r="8" ht="36" customHeight="1">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>DA</t>
+          <t>WE</t>
         </is>
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>Daily</t>
+          <t>Weekly</t>
         </is>
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>Daily</t>
+          <t>Weekly</t>
         </is>
       </c>
     </row>
     <row r="9" ht="36" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>DA</t>
         </is>
       </c>
       <c r="B9" s="11" t="inlineStr">
         <is>
-          <t>NOT_APPLICABLE</t>
+          <t>Daily</t>
         </is>
       </c>
       <c r="C9" s="14" t="inlineStr">
         <is>
-          <t>NOT_APPLICABLE</t>
+          <t>Daily</t>
         </is>
       </c>
     </row>
@@ -3792,7 +3809,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3801,10 +3818,10 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="5.2" customWidth="1" min="1" max="1"/>
-    <col width="7.800000000000001" customWidth="1" min="2" max="2"/>
+    <col width="9.1" customWidth="1" min="2" max="2"/>
     <col width="85" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
@@ -3825,243 +3842,260 @@
     <row r="2" ht="36" customHeight="1">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B2" s="9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>Reset</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
         <is>
-          <t>Dividend amount paid in cash per share</t>
+          <t>Reset value</t>
         </is>
       </c>
     </row>
     <row r="3" ht="36" customHeight="1">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C3" s="14" t="inlineStr">
         <is>
-          <t>Dividend amount paid in kind per share</t>
+          <t>Dividend amount paid in cash per share</t>
         </is>
       </c>
     </row>
     <row r="4" ht="36" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>Distributing income - Direct provision</t>
+          <t>Dividend amount paid in kind per share</t>
         </is>
       </c>
     </row>
     <row r="5" ht="36" customHeight="1">
       <c r="A5" s="6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C5" s="14" t="inlineStr">
         <is>
-          <t>Distributing income - Fund entity derivation</t>
+          <t>Distributing income - Direct provision</t>
         </is>
       </c>
     </row>
     <row r="6" ht="36" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B6" s="9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>Distributing income - Benchmark derivation</t>
+          <t>Distributing income - Fund entity derivation</t>
         </is>
       </c>
     </row>
     <row r="7" ht="36" customHeight="1">
       <c r="A7" s="6" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C7" s="14" t="inlineStr">
         <is>
-          <t>Cumulative income - Direct provision</t>
+          <t>Distributing income - Benchmark derivation</t>
         </is>
       </c>
     </row>
     <row r="8" ht="36" customHeight="1">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>Cumulative income - Fund entity derivation</t>
+          <t>Cumulative income - Direct provision</t>
         </is>
       </c>
     </row>
     <row r="9" ht="36" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B9" s="11" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C9" s="14" t="inlineStr">
         <is>
-          <t>Cumulative income - Benchmark derivation</t>
+          <t>Cumulative income - Fund entity derivation</t>
         </is>
       </c>
     </row>
     <row r="10" ht="36" customHeight="1">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B10" s="9" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C10" s="13" t="inlineStr">
         <is>
-          <t>Mixed income - Direct provision</t>
+          <t>Cumulative income - Benchmark derivation</t>
         </is>
       </c>
     </row>
     <row r="11" ht="36" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B11" s="11" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C11" s="14" t="inlineStr">
         <is>
-          <t>Mixed income - Fund entity derivation</t>
+          <t>Mixed income - Direct provision</t>
         </is>
       </c>
     </row>
     <row r="12" ht="36" customHeight="1">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B12" s="9" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C12" s="13" t="inlineStr">
         <is>
-          <t>Mixed income - Benchmark derivation</t>
+          <t>Mixed income - Fund entity derivation</t>
         </is>
       </c>
     </row>
     <row r="13" ht="36" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B13" s="11" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C13" s="14" t="inlineStr">
         <is>
-          <t>No detailed information available - Direct provision</t>
+          <t>Mixed income - Benchmark derivation</t>
         </is>
       </c>
     </row>
     <row r="14" ht="36" customHeight="1">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>91</t>
         </is>
       </c>
       <c r="B14" s="9" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>91</t>
         </is>
       </c>
       <c r="C14" s="13" t="inlineStr">
         <is>
-          <t>No detailed information available - Fund entity derivation</t>
+          <t>No detailed information available - Direct provision</t>
         </is>
       </c>
     </row>
     <row r="15" ht="36" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
         <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="B15" s="11" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="C15" s="14" t="inlineStr">
+        <is>
+          <t>No detailed information available - Fund entity derivation</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="36" customHeight="1">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
           <t>93</t>
         </is>
       </c>
-      <c r="B15" s="11" t="inlineStr">
+      <c r="B16" s="9" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="C15" s="14" t="inlineStr">
+      <c r="C16" s="13" t="inlineStr">
         <is>
           <t>No detailed information available - Benchmark derivation</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C15"/>
+  <autoFilter ref="A1:C16"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>